--- a/yanvar.xlsx
+++ b/yanvar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momin\Desktop\pycharm\ndt_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momin\Desktop\fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Umarjonov Ulug'bek</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>2111796525:</t>
+  </si>
+  <si>
+    <t>5172746353:</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,8 +902,8 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
-        <v>2111796525</v>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4"/>
@@ -972,8 +978,8 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
-        <v>5172746353</v>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4"/>
